--- a/recomendacoes_geradas/recomendacoes_comparadas_online/Grupos_3/[254, 314, 324]_std_AWM.xlsx
+++ b/recomendacoes_geradas/recomendacoes_comparadas_online/Grupos_3/[254, 314, 324]_std_AWM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="52">
   <si>
     <t>Posicao</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Discussão</t>
   </si>
   <si>
+    <t>MRR</t>
+  </si>
+  <si>
     <t>Tecnica</t>
   </si>
   <si>
@@ -99,21 +102,6 @@
   </si>
   <si>
     <t>Praia da 3a Ponte  Salvador - State of Bahia  Brazil</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3,666666667</t>
-  </si>
-  <si>
-    <t>2,666666667</t>
   </si>
   <si>
     <t>Standard AWM</t>
@@ -540,13 +528,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,8 +556,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -580,19 +571,22 @@
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -603,19 +597,22 @@
         <v>77</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -626,22 +623,25 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -652,22 +652,25 @@
         <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -678,22 +681,25 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -704,22 +710,25 @@
         <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -730,22 +739,25 @@
         <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -756,22 +768,25 @@
         <v>93</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>3.66</v>
+      </c>
+      <c r="H9">
+        <v>0.125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -782,19 +797,22 @@
         <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -805,19 +823,22 @@
         <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>2.66</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -827,13 +848,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,8 +876,11 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -867,19 +891,22 @@
         <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -890,19 +917,22 @@
         <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -913,22 +943,25 @@
         <v>140</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>2.66</v>
+      </c>
+      <c r="H4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -939,19 +972,22 @@
         <v>420</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>45</v>
+      </c>
+      <c r="H5">
+        <v>0.25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -962,19 +998,22 @@
         <v>355</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,19 +1024,22 @@
         <v>343</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="I7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1008,19 +1050,22 @@
         <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="I8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1031,19 +1076,22 @@
         <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>48</v>
+      </c>
+      <c r="H9">
+        <v>0.125</v>
+      </c>
+      <c r="I9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1054,22 +1102,25 @@
         <v>164</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>49</v>
+      </c>
+      <c r="G10">
+        <v>2.66</v>
+      </c>
+      <c r="H10">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1080,16 +1131,19 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="H11">
+        <v>0.1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
